--- a/outputs/PtCloates/PtCloatesBRUVS_fishlist_GC.xlsx
+++ b/outputs/PtCloates/PtCloatesBRUVS_fishlist_GC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10522231\MEG\GC_Chapter3_BRUVSvsDropCam\outputs\PtCloates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE567177-F9BA-45B2-98FA-809621C4ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D77800C-5431-49C7-8661-1EC8B5007C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PtCloatesBRUVS_fishlist" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="minus_Unknown_Genus" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="246">
   <si>
     <t>family</t>
   </si>
@@ -714,9 +715,6 @@
     <t>carpenteri</t>
   </si>
   <si>
-    <t>semiornatus?</t>
-  </si>
-  <si>
     <t>muroadsi?</t>
   </si>
   <si>
@@ -732,22 +730,43 @@
     <t>eel</t>
   </si>
   <si>
-    <t>Pseudanthias sp1</t>
-  </si>
-  <si>
-    <t>change to sp1 but go check video</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>check on boss</t>
+    <t>ACTION TO COMPLETE</t>
+  </si>
+  <si>
+    <t>ACTION DONE</t>
+  </si>
+  <si>
+    <t>FOR ASPECT RATIO OF CAUDAL FIN</t>
+  </si>
+  <si>
+    <t>Average dumerili and rivoliana</t>
+  </si>
+  <si>
+    <t>asked Bri</t>
+  </si>
+  <si>
+    <t>leave as spp</t>
+  </si>
+  <si>
+    <t>Make all Pseudanthias spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasciatus </t>
+  </si>
+  <si>
+    <t>semilineatus</t>
+  </si>
+  <si>
+    <t>change to Ostorhinchus semilineatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -884,7 +903,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1070,6 +1089,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1231,9 +1256,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1588,7 +1614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
@@ -4074,7 +4100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView topLeftCell="A126" workbookViewId="0">
@@ -6542,11 +6568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6556,7 +6582,7 @@
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6572,8 +6598,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6590,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6607,7 +6642,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6624,7 +6659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -6641,7 +6676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6658,13 +6693,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6681,7 +6716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -6698,7 +6733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6715,7 +6750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -6732,7 +6767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -6749,7 +6784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -6766,7 +6801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -6783,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -6800,7 +6835,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -6817,7 +6852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -6834,7 +6869,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -6851,7 +6886,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6868,7 +6903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6885,7 +6920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6902,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -6919,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -6936,7 +6971,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -6953,13 +6988,13 @@
         <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -6976,7 +7011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -6994,7 +7029,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -7011,13 +7046,16 @@
         <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+      <c r="M26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -7035,7 +7073,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -7053,7 +7091,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -7070,7 +7108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -7087,7 +7125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7104,7 +7142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -7172,10 +7210,10 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -7399,7 +7437,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -7416,13 +7454,13 @@
         <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I49" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -7439,7 +7477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -7456,7 +7494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -7473,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -7490,7 +7528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -7507,7 +7545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -7524,7 +7562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -7541,13 +7579,16 @@
         <v>9</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I56" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+      <c r="M56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -7565,7 +7606,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -7582,7 +7623,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -7599,7 +7640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -7616,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -7633,7 +7674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -7650,7 +7691,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -7667,7 +7708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -7684,7 +7725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -7701,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -7718,7 +7759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -7735,7 +7776,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -7753,7 +7794,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -7770,13 +7811,16 @@
         <v>16</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I69" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+      <c r="M69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -7794,7 +7838,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -7810,9 +7854,11 @@
       <c r="E71">
         <v>2</v>
       </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G71" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -7830,7 +7876,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -7847,7 +7893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -7864,7 +7910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>127</v>
       </c>
@@ -7881,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -7898,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>132</v>
       </c>
@@ -7915,7 +7961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>132</v>
       </c>
@@ -7932,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>132</v>
       </c>
@@ -7949,7 +7995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>132</v>
       </c>
@@ -8068,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -8428,7 +8474,7 @@
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -8516,7 +8562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>186</v>
       </c>
@@ -8533,7 +8579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>186</v>
       </c>
@@ -8550,7 +8596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>186</v>
       </c>
@@ -8567,7 +8613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>186</v>
       </c>
@@ -8584,7 +8630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>186</v>
       </c>
@@ -8601,10 +8647,13 @@
         <v>14</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+      <c r="M117" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>186</v>
       </c>
@@ -8622,7 +8671,7 @@
       </c>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>186</v>
       </c>
@@ -8639,7 +8688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>200</v>
       </c>
@@ -8656,7 +8705,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>200</v>
       </c>
@@ -8673,7 +8722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>200</v>
       </c>
@@ -8690,7 +8739,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>206</v>
       </c>
@@ -8707,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>206</v>
       </c>
@@ -8724,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>206</v>
       </c>
@@ -8741,7 +8790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>206</v>
       </c>
@@ -8758,10 +8807,10 @@
         <v>3</v>
       </c>
       <c r="G126" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>210</v>
       </c>
@@ -8778,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>213</v>
       </c>

--- a/outputs/PtCloates/PtCloatesBRUVS_fishlist_GC.xlsx
+++ b/outputs/PtCloates/PtCloatesBRUVS_fishlist_GC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10522231\MEG\GC_Chapter3_BRUVSvsDropCam\outputs\PtCloates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D77800C-5431-49C7-8661-1EC8B5007C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9282C3D5-1D9E-479D-B41A-F9AA52999DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-2268" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PtCloatesBRUVS_fishlist" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="minus_Unknown_Genus" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="254">
   <si>
     <t>family</t>
   </si>
@@ -745,9 +744,6 @@
     <t>Average dumerili and rivoliana</t>
   </si>
   <si>
-    <t>asked Bri</t>
-  </si>
-  <si>
     <t>leave as spp</t>
   </si>
   <si>
@@ -761,6 +757,33 @@
   </si>
   <si>
     <t>change to Ostorhinchus semilineatus</t>
+  </si>
+  <si>
+    <t>should be sp1</t>
+  </si>
+  <si>
+    <t>keep as multidens</t>
+  </si>
+  <si>
+    <t>sp1?</t>
+  </si>
+  <si>
+    <t>YES sp1</t>
+  </si>
+  <si>
+    <t>too far away to tell, leave as spp.</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t>YES - CONFIRM W C</t>
+  </si>
+  <si>
+    <t>average filamentosus and typus</t>
+  </si>
+  <si>
+    <t>no change.</t>
   </si>
 </sst>
 </file>
@@ -6572,7 +6595,7 @@
   <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6580,6 +6603,8 @@
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -6693,10 +6718,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -7792,7 +7817,12 @@
       <c r="E68">
         <v>32</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I68" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -7804,17 +7834,17 @@
       <c r="C69" t="s">
         <v>121</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>5</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>16</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="I69" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="M69" t="s">
         <v>121</v>
@@ -7830,13 +7860,19 @@
       <c r="C70" t="s">
         <v>46</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>48</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>220</v>
       </c>
       <c r="G70" s="1"/>
+      <c r="K70" t="s">
+        <v>250</v>
+      </c>
+      <c r="M70" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -7854,8 +7890,14 @@
       <c r="E71">
         <v>2</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>240</v>
+      <c r="G71" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I71" t="s">
+        <v>249</v>
+      </c>
+      <c r="K71" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -7874,7 +7916,12 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I72" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -8012,7 +8059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>132</v>
       </c>
@@ -8029,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>132</v>
       </c>
@@ -8046,7 +8093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -8063,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>142</v>
       </c>
@@ -8080,7 +8127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>142</v>
       </c>
@@ -8097,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -8116,8 +8163,11 @@
       <c r="G86" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I86" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -8134,7 +8184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>147</v>
       </c>
@@ -8151,7 +8201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>147</v>
       </c>
@@ -8168,7 +8218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>147</v>
       </c>
@@ -8185,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>147</v>
       </c>
@@ -8202,7 +8252,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>147</v>
       </c>
@@ -8219,7 +8269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>147</v>
       </c>
@@ -8236,7 +8286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>156</v>
       </c>
@@ -8253,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -8270,7 +8320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -8287,7 +8337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>160</v>
       </c>
@@ -8304,7 +8354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>160</v>
       </c>
@@ -8321,7 +8371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>160</v>
       </c>
@@ -8338,7 +8388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -8355,7 +8405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>168</v>
       </c>
@@ -8372,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>171</v>
       </c>
@@ -8389,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>174</v>
       </c>
@@ -8406,7 +8456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>179</v>
       </c>
@@ -8423,7 +8473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>179</v>
       </c>
@@ -8440,7 +8490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>183</v>
       </c>
@@ -8457,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>183</v>
       </c>
@@ -8474,10 +8524,13 @@
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+      <c r="I107" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>186</v>
       </c>
@@ -8494,7 +8547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>186</v>
       </c>
@@ -8511,7 +8564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>186</v>
       </c>
@@ -8528,7 +8581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>186</v>
       </c>
@@ -8545,7 +8598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>186</v>
       </c>
@@ -8647,10 +8700,10 @@
         <v>14</v>
       </c>
       <c r="G117" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M117" t="s">
         <v>242</v>
-      </c>
-      <c r="M117" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
@@ -8807,7 +8860,10 @@
         <v>3</v>
       </c>
       <c r="G126" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="I126" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">

--- a/outputs/PtCloates/PtCloatesBRUVS_fishlist_GC.xlsx
+++ b/outputs/PtCloates/PtCloatesBRUVS_fishlist_GC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10522231\MEG\GC_Chapter3_BRUVSvsDropCam\outputs\PtCloates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9282C3D5-1D9E-479D-B41A-F9AA52999DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7236F2-BB68-4E09-92BE-02D3814CAEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-2268" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="260">
   <si>
     <t>family</t>
   </si>
@@ -747,12 +747,6 @@
     <t>leave as spp</t>
   </si>
   <si>
-    <t>Make all Pseudanthias spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fasciatus </t>
-  </si>
-  <si>
     <t>semilineatus</t>
   </si>
   <si>
@@ -777,13 +771,37 @@
     <t>no change</t>
   </si>
   <si>
-    <t>YES - CONFIRM W C</t>
-  </si>
-  <si>
     <t>average filamentosus and typus</t>
   </si>
   <si>
     <t>no change.</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Make all Pseudanthias fasciata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasciata </t>
+  </si>
+  <si>
+    <t>DONE ON BOTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES </t>
   </si>
 </sst>
 </file>
@@ -6592,10 +6610,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6603,11 +6621,11 @@
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6623,17 +6641,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" t="s">
         <v>236</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>237</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6650,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6667,7 +6691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6684,7 +6708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -6701,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6717,14 +6741,20 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>2021</v>
+      </c>
       <c r="G6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="H6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6741,7 +6771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -6758,7 +6788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6775,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -6792,7 +6822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -6809,7 +6839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -6826,7 +6856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -6843,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -6860,7 +6890,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -6877,7 +6907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -6894,7 +6924,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -6911,7 +6941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6928,7 +6958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6945,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6962,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -6979,7 +7009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -6996,7 +7026,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -7012,14 +7042,20 @@
       <c r="E23">
         <v>242</v>
       </c>
+      <c r="F23" t="s">
+        <v>252</v>
+      </c>
       <c r="G23" t="s">
+        <v>258</v>
+      </c>
+      <c r="H23" t="s">
         <v>230</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -7036,7 +7072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -7052,9 +7088,15 @@
       <c r="E25">
         <v>11</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -7070,17 +7112,23 @@
       <c r="E26">
         <v>8</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26">
+        <v>2022</v>
+      </c>
+      <c r="G26" t="s">
+        <v>254</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>235</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -7096,9 +7144,15 @@
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>2021</v>
+      </c>
+      <c r="G27" t="s">
+        <v>248</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -7114,9 +7168,15 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>2021</v>
+      </c>
+      <c r="G28" t="s">
+        <v>248</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -7133,7 +7193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -7150,7 +7210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7167,7 +7227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -7184,7 +7244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -7201,7 +7261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -7218,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -7234,14 +7294,20 @@
       <c r="E35">
         <v>2</v>
       </c>
+      <c r="F35">
+        <v>2021</v>
+      </c>
       <c r="G35" t="s">
+        <v>255</v>
+      </c>
+      <c r="H35" t="s">
         <v>232</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -7258,7 +7324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -7275,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -7292,7 +7358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -7309,7 +7375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -7326,7 +7392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -7343,7 +7409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -7360,7 +7426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -7377,7 +7443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -7394,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -7411,7 +7477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -7428,7 +7494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -7445,7 +7511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -7462,7 +7528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -7478,14 +7544,20 @@
       <c r="E49">
         <v>16</v>
       </c>
+      <c r="F49">
+        <v>2022</v>
+      </c>
       <c r="G49" t="s">
+        <v>255</v>
+      </c>
+      <c r="H49" t="s">
         <v>233</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -7502,7 +7574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -7519,7 +7591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -7536,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -7553,7 +7625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -7570,7 +7642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -7587,7 +7659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -7603,17 +7675,23 @@
       <c r="E56">
         <v>9</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="F56" t="s">
+        <v>252</v>
+      </c>
+      <c r="G56" t="s">
+        <v>258</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>235</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -7629,9 +7707,9 @@
       <c r="E57">
         <v>182</v>
       </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -7648,7 +7726,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -7665,7 +7743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -7682,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -7699,7 +7777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -7716,7 +7794,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -7733,7 +7811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -7750,7 +7828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -7767,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -7784,7 +7862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -7801,7 +7879,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -7817,14 +7895,20 @@
       <c r="E68">
         <v>32</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I68" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <v>2021</v>
+      </c>
+      <c r="G68" t="s">
+        <v>255</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -7840,17 +7924,23 @@
       <c r="E69" s="1">
         <v>16</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I69" t="s">
-        <v>251</v>
-      </c>
-      <c r="M69" t="s">
+      <c r="G69" t="s">
+        <v>248</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J69" t="s">
+        <v>259</v>
+      </c>
+      <c r="L69" t="s">
+        <v>248</v>
+      </c>
+      <c r="N69" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -7866,15 +7956,18 @@
       <c r="E70" s="1">
         <v>220</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="K70" t="s">
-        <v>250</v>
-      </c>
-      <c r="M70" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G70" t="s">
+        <v>248</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="L70" t="s">
+        <v>248</v>
+      </c>
+      <c r="N70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -7890,17 +7983,20 @@
       <c r="E71">
         <v>2</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I71" t="s">
-        <v>249</v>
-      </c>
-      <c r="K71" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G71" t="s">
+        <v>248</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J71" t="s">
+        <v>247</v>
+      </c>
+      <c r="L71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -7916,14 +8012,20 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I72" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <v>2022</v>
+      </c>
+      <c r="G72" t="s">
+        <v>255</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -7940,7 +8042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -7957,7 +8059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>127</v>
       </c>
@@ -7974,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -7991,7 +8093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>132</v>
       </c>
@@ -8008,7 +8110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>132</v>
       </c>
@@ -8025,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>132</v>
       </c>
@@ -8042,7 +8144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>132</v>
       </c>
@@ -8059,7 +8161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>132</v>
       </c>
@@ -8076,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>132</v>
       </c>
@@ -8093,7 +8195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -8110,7 +8212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>142</v>
       </c>
@@ -8127,7 +8229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>142</v>
       </c>
@@ -8144,7 +8246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -8160,14 +8262,14 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>234</v>
       </c>
-      <c r="I86" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -8184,7 +8286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>147</v>
       </c>
@@ -8201,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>147</v>
       </c>
@@ -8218,7 +8320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>147</v>
       </c>
@@ -8235,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>147</v>
       </c>
@@ -8252,7 +8354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>147</v>
       </c>
@@ -8269,7 +8371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>147</v>
       </c>
@@ -8286,7 +8388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>156</v>
       </c>
@@ -8303,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -8320,7 +8422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -8337,7 +8439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>160</v>
       </c>
@@ -8354,7 +8456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>160</v>
       </c>
@@ -8371,7 +8473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>160</v>
       </c>
@@ -8388,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -8405,7 +8507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>168</v>
       </c>
@@ -8422,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>171</v>
       </c>
@@ -8439,7 +8541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>174</v>
       </c>
@@ -8456,7 +8558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>179</v>
       </c>
@@ -8473,7 +8575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>179</v>
       </c>
@@ -8490,7 +8592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>183</v>
       </c>
@@ -8507,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>183</v>
       </c>
@@ -8523,14 +8625,14 @@
       <c r="E107">
         <v>13</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>240</v>
       </c>
-      <c r="I107" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>186</v>
       </c>
@@ -8547,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>186</v>
       </c>
@@ -8564,7 +8666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>186</v>
       </c>
@@ -8581,7 +8683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>186</v>
       </c>
@@ -8598,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>186</v>
       </c>
@@ -8615,7 +8717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>186</v>
       </c>
@@ -8632,7 +8734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>186</v>
       </c>
@@ -8649,7 +8751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>186</v>
       </c>
@@ -8666,7 +8768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>186</v>
       </c>
@@ -8683,7 +8785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>186</v>
       </c>
@@ -8699,14 +8801,20 @@
       <c r="E117">
         <v>14</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M117" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F117">
+        <v>2022</v>
+      </c>
+      <c r="G117" t="s">
+        <v>255</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N117" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>186</v>
       </c>
@@ -8722,9 +8830,9 @@
       <c r="E118">
         <v>1</v>
       </c>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>186</v>
       </c>
@@ -8741,7 +8849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>200</v>
       </c>
@@ -8758,7 +8866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>200</v>
       </c>
@@ -8775,7 +8883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>200</v>
       </c>
@@ -8792,7 +8900,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>206</v>
       </c>
@@ -8809,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>206</v>
       </c>
@@ -8826,7 +8934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>206</v>
       </c>
@@ -8843,7 +8951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>206</v>
       </c>
@@ -8859,14 +8967,14 @@
       <c r="E126">
         <v>3</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>240</v>
       </c>
-      <c r="I126" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J126" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>210</v>
       </c>
@@ -8883,7 +8991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>213</v>
       </c>
